--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ECLIPSE IDE\seleniumJavaWorkBench\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9A4A05-CD51-4210-AA6E-38FF3036C94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8545E5-2512-4E89-8EA5-75EC6F95C538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet10" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -106,6 +111,72 @@
   </si>
   <si>
     <t>The Search result contains  "Car Washing Services" and "Saravanampatti, Coimbatore"</t>
+  </si>
+  <si>
+    <t>Parthiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tharun </t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Srinivas</t>
+  </si>
+  <si>
+    <t>Poojesh</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Vellore</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Departure City</t>
+  </si>
+  <si>
+    <t>Destination City</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>tamil,english,telugu</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Sub Menu</t>
   </si>
 </sst>
 </file>
@@ -170,18 +241,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681332D3-1C55-455B-B36C-F1279210F767}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,72 +634,72 @@
       <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -641,7 +715,82 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DA57E-BE91-4D3D-BA53-96378C61B11C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244DB41-81B0-40E1-8043-B3CA00CCD370}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981FCEC0-F4C0-4EE1-AC5D-892EEB96AE9E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -670,25 +819,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB888E4-60A2-4DA7-9929-293CC421EBF6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -705,12 +854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55F038-62C3-4D2F-83DA-40C877767835}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,12 +889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46894FF9-5F6E-4176-8D49-2E0E68A2167F}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,4 +936,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBFA65-94E1-42A9-80AF-5BD03C74121D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD46BD13-A7EB-4D59-8C5A-7A8827BC21B6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38DB7D2-E491-4117-BA17-3AAF90B77DB8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ECLIPSE IDE\seleniumJavaWorkBench\Identify-Car-Wash-Services\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2403738\selenium-workspace\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9A4A05-CD51-4210-AA6E-38FF3036C94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7FC3F-931A-4820-8BC8-A1B2173A3658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
   </bookViews>
@@ -170,18 +170,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681332D3-1C55-455B-B36C-F1279210F767}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,19 +559,19 @@
       <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
@@ -581,62 +580,9 @@
         <v>18</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="F2:F6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -5,19 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2403738\selenium-workspace\Identify-Car-Wash-Services\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ECLIPSE IDE\seleniumJavaWorkBench\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC7FC3F-931A-4820-8BC8-A1B2173A3658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A660AB2A-B8F4-441A-8F81-1944DCCBE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="TC001" sheetId="15" r:id="rId1"/>
+    <sheet name="TC002" sheetId="2" r:id="rId2"/>
+    <sheet name="TC003" sheetId="12" r:id="rId3"/>
+    <sheet name="TC004" sheetId="3" r:id="rId4"/>
+    <sheet name="TC005" sheetId="4" r:id="rId5"/>
+    <sheet name="TC006" sheetId="5" r:id="rId6"/>
+    <sheet name="TC007" sheetId="7" r:id="rId7"/>
+    <sheet name="TC008" sheetId="8" r:id="rId8"/>
+    <sheet name="TC009" sheetId="9" r:id="rId9"/>
+    <sheet name="TC010" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,14 +45,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
   <si>
     <t>Saravanampatti</t>
   </si>
   <si>
-    <t xml:space="preserve"> Car Washing Services</t>
-  </si>
-  <si>
     <t>0000000000</t>
   </si>
   <si>
@@ -60,59 +62,448 @@
     <t>PhoneNumber</t>
   </si>
   <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>scrap</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>Search Result - Expected Result</t>
+  </si>
+  <si>
+    <t>Search Result - Actual Result</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Departure City</t>
+  </si>
+  <si>
+    <t>Destination City</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>tamil,english,telugu</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Sub Menu</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Filter </t>
+  </si>
+  <si>
+    <t>Cuisines</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Please Enter a Valid Mobile Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expected Result - Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actual Result - Message</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Car Washing Sevices</t>
+  </si>
+  <si>
     <t>Hostels</t>
   </si>
   <si>
-    <t>Restaurants</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>scrap</t>
-  </si>
-  <si>
-    <t>computer</t>
-  </si>
-  <si>
-    <t>Car Service Name</t>
-  </si>
-  <si>
-    <t>Contact Number</t>
-  </si>
-  <si>
-    <t>Search Result - Expected Result</t>
-  </si>
-  <si>
-    <t>Search Result - Actual Result</t>
-  </si>
-  <si>
-    <t>Test Case - Expected result</t>
-  </si>
-  <si>
-    <t>5 Sets of data obtained</t>
-  </si>
-  <si>
-    <t>Test Case - Actual result</t>
-  </si>
-  <si>
-    <t>Test Status</t>
-  </si>
-  <si>
-    <t>The Search result contains  "Car Washing Services" and "Saravanampatti, Coimbatore"</t>
+    <t>Top Rated</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Travels Name / Departure Time / Price</t>
+  </si>
+  <si>
+    <t>Theatre Name / Location / Show Timings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data / Validity / Details / Amount </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fitness Centres</t>
+  </si>
+  <si>
+    <t>Gyms</t>
+  </si>
+  <si>
+    <t>Unisex Gyms</t>
+  </si>
+  <si>
+    <t>Crossfit Gyms</t>
+  </si>
+  <si>
+    <t>Women Gyms</t>
+  </si>
+  <si>
+    <t>Personal Gym Trainers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Name: Whats Up Mens Hostel
+Location: E B Colony Saravanampatti, Coimbatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Name: PSG Tech Additional Hostel
+Location: Nehru Street Peelamedu, Coimbatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Name: The Executive Grande
+Location: Nagar Entrance Saravanampatti, Coimbatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Name: SRS Ladies Hostel
+Location: PKD Nagar 1st Street Peelamedu, Coimbatore</t>
+  </si>
+  <si>
+    <t>MRM Travels , 12:40 AM , Rs:600</t>
+  </si>
+  <si>
+    <t>Parveen Travels , 8:30 PM , Rs:1050</t>
+  </si>
+  <si>
+    <t>YBM Travels(BLM) , 8:30 PM , Rs:1200</t>
+  </si>
+  <si>
+    <t>LION Travels , 8:40 PM , Rs:2000</t>
+  </si>
+  <si>
+    <t>Results(Car Washing Service/Contact Nuber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result contains  "Car Washing Services" and "Saravanampatti, Coimbatore"</t>
+  </si>
+  <si>
+    <t>5K Car Care Pvt Ltd / 07411822389</t>
+  </si>
+  <si>
+    <t>Covai Tyres / 07383614773</t>
+  </si>
+  <si>
+    <t>Nexstep Auto Care / 08488802438</t>
+  </si>
+  <si>
+    <t>AK Tyres / 08460204265</t>
+  </si>
+  <si>
+    <t>Results(Hostel Name / Location)</t>
+  </si>
+  <si>
+    <t>Results(HotelName / Rating / People Rating)</t>
+  </si>
+  <si>
+    <t>SRS Ladies Hostel , PKD Nagar 1st Street Peelamedu, Coimbatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Hire   Car Repair &amp; Services   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrap Dealers   Scrap Buyers   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expected Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actual Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result should contains  "Car Washing Services" and "Saravanampatti, Coimbatore"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages,Format,Genre check box should be Enabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result should Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>South Indian</t>
+  </si>
+  <si>
+    <t>Online Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The number rating Should be greater than 20</t>
+  </si>
+  <si>
+    <t>Both Non-AC and Sleeper Check box should be  Enabled</t>
+  </si>
+  <si>
+    <t>Both Non-AC and Sleeper Check box are Enabled</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>All the fields have 5 Results</t>
+  </si>
+  <si>
+    <t>Hotels Name / Rating</t>
+  </si>
+  <si>
+    <t>Restaurant Name / Rating</t>
+  </si>
+  <si>
+    <t>Coffee Shop Name / Rating</t>
+  </si>
+  <si>
+    <t>Travel Agents  / Rating</t>
+  </si>
+  <si>
+    <t>Things To Do / Rating</t>
+  </si>
+  <si>
+    <t>All the fields Should have 5 Results</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Plans Amounts Should be Less Than 1000 Rs</t>
+  </si>
+  <si>
+    <t>The Search result contains  gym/fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>Yummy Garden Restaurant &amp; Function Hall , 3.9 , 270 Ratings</t>
+  </si>
+  <si>
+    <t>Guru Amuthas , 3.6 , 4,958 Ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The number rating is greater than 20</t>
+  </si>
+  <si>
+    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages,Format,Genre check box are Enabled </t>
+  </si>
+  <si>
+    <t>Data : Unlimited | Validity : 1 day , 49</t>
+  </si>
+  <si>
+    <t>Data : 5GB | Validity : 7 days , 77</t>
+  </si>
+  <si>
+    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : All device access, Unlimited entertainment ; JioHotstar Super : Watch Live Sports, Movies, Exclusive Hotstar Specials &amp; more ; Zee5 Premium : Get access to Zee5 content, Subscription starts from the day of recharge, claim on Airtel Xstream Play App ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLiv, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNXT, and more on Airtel Xstream Play Premium, Download the app and start enjoying top hits today , 279</t>
+  </si>
+  <si>
+    <t>Data : 2GB | Details: 2GB data valid for the same day till midnight, Revised price for Rs 29 pack , 33</t>
+  </si>
+  <si>
+    <t>Data: 15GB | Validity: 30 days | Details: 20+ OTTs with Airtel Xstream Play for 30 days ; Airtel Xstream Play Premium (includes 22+ OTTs) : Enjoy 30 days full access to 22+ OTTs such as Sony LIV, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNxt and more on Airtel Xstream Play Premium. Download the app and start enjoying top hits today! , 181</t>
+  </si>
+  <si>
+    <t>Plans Amounts are Lesser Than 1000 Rs</t>
+  </si>
+  <si>
+    <t>Each Search Results Should have atleast one Result</t>
+  </si>
+  <si>
+    <t>Hotel Aryaas , 3.8 , 3,610 Ratings</t>
+  </si>
+  <si>
+    <t>Each Search Results have atleast one Result</t>
+  </si>
+  <si>
+    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 10:00 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 11:45 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:10 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 10:35 AM</t>
+  </si>
+  <si>
+    <t>Hotel Sahara Star , 4.4</t>
+  </si>
+  <si>
+    <t>Taj Lands End , 4.5</t>
+  </si>
+  <si>
+    <t>Trident Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>JW Marriott Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>Sofitel Mumbai Bkc , 4.6</t>
+  </si>
+  <si>
+    <t>Pizza By The Bay , 4.2</t>
+  </si>
+  <si>
+    <t>Hotel Ram Ashraya , 4.4</t>
+  </si>
+  <si>
+    <t>Leopold Cafe &amp; Bar , 4.3</t>
+  </si>
+  <si>
+    <t>Cafe Madras , 4.4</t>
+  </si>
+  <si>
+    <t>Gurukripa Restaurant , 4.3</t>
+  </si>
+  <si>
+    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.4</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.3</t>
+  </si>
+  <si>
+    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
+  </si>
+  <si>
+    <t>Candies , 4.2</t>
+  </si>
+  <si>
+    <t>Trekhievers , 4.5</t>
+  </si>
+  <si>
+    <t>Trekpanda , 4.6</t>
+  </si>
+  <si>
+    <t>Trekkers United , 4.7</t>
+  </si>
+  <si>
+    <t>Go Holidays , 4.4</t>
+  </si>
+  <si>
+    <t>When , 4.6</t>
+  </si>
+  <si>
+    <t>Snow Kingdom (R City Mall) , 4.6</t>
+  </si>
+  <si>
+    <t>Water Kingdom , 4.3</t>
+  </si>
+  <si>
+    <t>Kidzania (R City Mall) , 4.4</t>
+  </si>
+  <si>
+    <t>Wonder Park , 4.1</t>
+  </si>
+  <si>
+    <t>Great Escape Water Park , 4.0</t>
+  </si>
+  <si>
+    <t>XLR8 Moto Court / 08105362141</t>
+  </si>
+  <si>
+    <t>Four Seasons Restaurant , 3.7 , 3,207 Ratings</t>
+  </si>
+  <si>
+    <t>Mohabbath Restaurant , 4.0 , 1,709 Ratings</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 11:50 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result should contains  gym/fitness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +524,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,16 +567,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,100 +955,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681332D3-1C55-455B-B36C-F1279210F767}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6AAB9E-D61F-40B2-8FB1-FFE87B46488F}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="26.90625" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="19">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="F2:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2078910E-89DC-4A82-8AE7-BC0CD9CFD94E}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="91" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="18">
+        <v>8122537244</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981FCEC0-F4C0-4EE1-AC5D-892EEB96AE9E}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="29.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -617,120 +1257,937 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB888E4-60A2-4DA7-9929-293CC421EBF6}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DA57E-BE91-4D3D-BA53-96378C61B11C}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="C2:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB888E4-60A2-4DA7-9929-293CC421EBF6}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G7" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55F038-62C3-4D2F-83DA-40C877767835}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55F038-62C3-4D2F-83DA-40C877767835}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46894FF9-5F6E-4176-8D49-2E0E68A2167F}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="190.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBFA65-94E1-42A9-80AF-5BD03C74121D}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD46BD13-A7EB-4D59-8C5A-7A8827BC21B6}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38DB7D2-E491-4117-BA17-3AAF90B77DB8}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ECLIPSE IDE\seleniumJavaWorkBench\Identify-Car-Wash-Services\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse workspace\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A660AB2A-B8F4-441A-8F81-1944DCCBE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B7E00-58DD-48ED-9617-3D475152E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="15" r:id="rId1"/>
@@ -23,10 +23,11 @@
     <sheet name="TC008" sheetId="8" r:id="rId8"/>
     <sheet name="TC009" sheetId="9" r:id="rId9"/>
     <sheet name="TC010" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,12 +46,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
   <si>
     <t>Saravanampatti</t>
-  </si>
-  <si>
-    <t>0000000000</t>
   </si>
   <si>
     <t>Location</t>
@@ -250,9 +248,6 @@
     <t>Results(Car Washing Service/Contact Nuber)</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Search result contains  "Car Washing Services" and "Saravanampatti, Coimbatore"</t>
-  </si>
-  <si>
     <t>5K Car Care Pvt Ltd / 07411822389</t>
   </si>
   <si>
@@ -355,18 +350,12 @@
     <t xml:space="preserve"> The Search result Contains coimbatore in Location</t>
   </si>
   <si>
-    <t>Yummy Garden Restaurant &amp; Function Hall , 3.9 , 270 Ratings</t>
-  </si>
-  <si>
     <t>Guru Amuthas , 3.6 , 4,958 Ratings</t>
   </si>
   <si>
     <t xml:space="preserve"> The number rating is greater than 20</t>
   </si>
   <si>
-    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1100</t>
-  </si>
-  <si>
     <t xml:space="preserve">Languages,Format,Genre check box are Enabled </t>
   </si>
   <si>
@@ -397,18 +386,6 @@
     <t>Each Search Results have atleast one Result</t>
   </si>
   <si>
-    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 10:00 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 11:45 AM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:10 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 10:35 AM</t>
-  </si>
-  <si>
     <t>Hotel Sahara Star , 4.4</t>
   </si>
   <si>
@@ -484,25 +461,50 @@
     <t>Great Escape Water Park , 4.0</t>
   </si>
   <si>
-    <t>XLR8 Moto Court / 08105362141</t>
-  </si>
-  <si>
     <t>Four Seasons Restaurant , 3.7 , 3,207 Ratings</t>
   </si>
   <si>
-    <t>Mohabbath Restaurant , 4.0 , 1,709 Ratings</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 11:50 AM</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The Search result should contains  gym/fitness</t>
+  </si>
+  <si>
+    <t>Yummy Garden Restaurant , 3.9 , 313 Ratings</t>
+  </si>
+  <si>
+    <t>Aasife Biriyani , 3.8 , 2,681 Ratings</t>
+  </si>
+  <si>
+    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:35 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 11:00 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 10:10 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 04:55 PM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:05 AM</t>
+  </si>
+  <si>
+    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
+  </si>
+  <si>
+    <t>The Cars Coimbatore / 09054493503</t>
+  </si>
+  <si>
+    <t>Nextgen Auto Shop / 08511973527</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -575,7 +577,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,6 +611,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,118 +972,118 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7265625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="38.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="22">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="19">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+        <v>146</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1090,110 +1103,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2078910E-89DC-4A82-8AE7-BC0CD9CFD94E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="91" workbookViewId="0">
+    <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.90625"/>
+    <col min="4" max="4" customWidth="true" width="56.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="B2" s="21">
+        <v>8122537244</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="18">
-        <v>8122537244</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="0"/>
+      <c r="J2" s="0"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="145" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1208,46 +1221,95 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D9107-35B7-4EA4-B4C3-7C9F736888BC}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" customWidth="true" width="38.08984375"/>
+    <col min="3" max="3" customWidth="true" width="34.6328125"/>
+    <col min="4" max="4" customWidth="true" width="11.36328125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17">
+        <v>1234567890</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981FCEC0-F4C0-4EE1-AC5D-892EEB96AE9E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="2" max="4" bestFit="true" customWidth="true" width="29.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
+      <c r="A2" s="2">
+        <v>1234567890</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1266,90 +1328,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0"/>
+    <col min="3" max="3" customWidth="true" width="28.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>26</v>
+      <c r="A2" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1372,124 +1434,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="70.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
+    <col min="3" max="3" customWidth="true" width="12.6328125"/>
+    <col min="4" max="4" customWidth="true" width="11.54296875"/>
+    <col min="5" max="5" customWidth="true" width="11.453125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="70.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>49</v>
+      <c r="G2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1517,142 +1579,142 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="72.90625"/>
+    <col min="8" max="8" customWidth="true" width="28.54296875"/>
+    <col min="9" max="9" customWidth="true" width="26.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="G2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>49</v>
+      <c r="I2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1682,97 +1744,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="190.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="190.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.6328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="12" max="12" customWidth="true" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1794,158 +1856,158 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>2</v>
+      <c r="A1" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="2" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1969,93 +2031,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.08984375"/>
+    <col min="2" max="2" customWidth="true" width="15.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="42.54296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2073,111 +2135,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38DB7D2-E491-4117-BA17-3AAF90B77DB8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="91.26953125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="41.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>49</v>
+        <v>140</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+        <v>141</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+        <v>143</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+        <v>144</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -1043,7 +1043,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -1055,7 +1055,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse workspace\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B7E00-58DD-48ED-9617-3D475152E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94673358-24BC-462F-AA9A-AB4C035A4D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="15" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="152">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Filter </t>
   </si>
   <si>
     <t>Cuisines</t>
@@ -248,256 +245,271 @@
     <t>Results(Car Washing Service/Contact Nuber)</t>
   </si>
   <si>
+    <t>Covai Tyres / 07383614773</t>
+  </si>
+  <si>
+    <t>Nexstep Auto Care / 08488802438</t>
+  </si>
+  <si>
+    <t>AK Tyres / 08460204265</t>
+  </si>
+  <si>
+    <t>Results(Hostel Name / Location)</t>
+  </si>
+  <si>
+    <t>Results(HotelName / Rating / People Rating)</t>
+  </si>
+  <si>
+    <t>SRS Ladies Hostel , PKD Nagar 1st Street Peelamedu, Coimbatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expected Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actual Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result should contains  "Car Washing Services" and "Saravanampatti, Coimbatore"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages,Format,Genre check box should be Enabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result should Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>South Indian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The number rating Should be greater than 20</t>
+  </si>
+  <si>
+    <t>Both Non-AC and Sleeper Check box should be  Enabled</t>
+  </si>
+  <si>
+    <t>Both Non-AC and Sleeper Check box are Enabled</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>All the fields have 5 Results</t>
+  </si>
+  <si>
+    <t>Hotels Name / Rating</t>
+  </si>
+  <si>
+    <t>Restaurant Name / Rating</t>
+  </si>
+  <si>
+    <t>Coffee Shop Name / Rating</t>
+  </si>
+  <si>
+    <t>Travel Agents  / Rating</t>
+  </si>
+  <si>
+    <t>Things To Do / Rating</t>
+  </si>
+  <si>
+    <t>All the fields Should have 5 Results</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Plans Amounts Should be Less Than 1000 Rs</t>
+  </si>
+  <si>
+    <t>The Search result contains  gym/fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>Guru Amuthas , 3.6 , 4,958 Ratings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages,Format,Genre check box are Enabled </t>
+  </si>
+  <si>
+    <t>Data : Unlimited | Validity : 1 day , 49</t>
+  </si>
+  <si>
+    <t>Data : 5GB | Validity : 7 days , 77</t>
+  </si>
+  <si>
+    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : All device access, Unlimited entertainment ; JioHotstar Super : Watch Live Sports, Movies, Exclusive Hotstar Specials &amp; more ; Zee5 Premium : Get access to Zee5 content, Subscription starts from the day of recharge, claim on Airtel Xstream Play App ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLiv, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNXT, and more on Airtel Xstream Play Premium, Download the app and start enjoying top hits today , 279</t>
+  </si>
+  <si>
+    <t>Data : 2GB | Details: 2GB data valid for the same day till midnight, Revised price for Rs 29 pack , 33</t>
+  </si>
+  <si>
+    <t>Data: 15GB | Validity: 30 days | Details: 20+ OTTs with Airtel Xstream Play for 30 days ; Airtel Xstream Play Premium (includes 22+ OTTs) : Enjoy 30 days full access to 22+ OTTs such as Sony LIV, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNxt and more on Airtel Xstream Play Premium. Download the app and start enjoying top hits today! , 181</t>
+  </si>
+  <si>
+    <t>Plans Amounts are Lesser Than 1000 Rs</t>
+  </si>
+  <si>
+    <t>Each Search Results Should have atleast one Result</t>
+  </si>
+  <si>
+    <t>Hotel Aryaas , 3.8 , 3,610 Ratings</t>
+  </si>
+  <si>
+    <t>Hotel Sahara Star , 4.4</t>
+  </si>
+  <si>
+    <t>Taj Lands End , 4.5</t>
+  </si>
+  <si>
+    <t>Trident Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>JW Marriott Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>Sofitel Mumbai Bkc , 4.6</t>
+  </si>
+  <si>
+    <t>Pizza By The Bay , 4.2</t>
+  </si>
+  <si>
+    <t>Hotel Ram Ashraya , 4.4</t>
+  </si>
+  <si>
+    <t>Leopold Cafe &amp; Bar , 4.3</t>
+  </si>
+  <si>
+    <t>Cafe Madras , 4.4</t>
+  </si>
+  <si>
+    <t>Gurukripa Restaurant , 4.3</t>
+  </si>
+  <si>
+    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.4</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.3</t>
+  </si>
+  <si>
+    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
+  </si>
+  <si>
+    <t>Candies , 4.2</t>
+  </si>
+  <si>
+    <t>Trekhievers , 4.5</t>
+  </si>
+  <si>
+    <t>Trekpanda , 4.6</t>
+  </si>
+  <si>
+    <t>Trekkers United , 4.7</t>
+  </si>
+  <si>
+    <t>Go Holidays , 4.4</t>
+  </si>
+  <si>
+    <t>When , 4.6</t>
+  </si>
+  <si>
+    <t>Snow Kingdom (R City Mall) , 4.6</t>
+  </si>
+  <si>
+    <t>Water Kingdom , 4.3</t>
+  </si>
+  <si>
+    <t>Kidzania (R City Mall) , 4.4</t>
+  </si>
+  <si>
+    <t>Wonder Park , 4.1</t>
+  </si>
+  <si>
+    <t>Great Escape Water Park , 4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Search result should contains  gym/fitness</t>
+  </si>
+  <si>
+    <t>Yummy Garden Restaurant , 3.9 , 313 Ratings</t>
+  </si>
+  <si>
+    <t>Aasife Biriyani , 3.8 , 2,681 Ratings</t>
+  </si>
+  <si>
+    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:35 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 11:00 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 10:10 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 04:55 PM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:05 AM</t>
+  </si>
+  <si>
+    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
+  </si>
+  <si>
+    <t>The Cars Coimbatore / 09054493503</t>
+  </si>
+  <si>
+    <t>AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching</t>
+  </si>
+  <si>
+    <t>Each Search Result has at least one match</t>
+  </si>
+  <si>
+    <t>Car Hire   Car Repair &amp; Services</t>
+  </si>
+  <si>
+    <t>AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services</t>
+  </si>
+  <si>
+    <t>Scrap Dealers   Scrap Buyers</t>
+  </si>
+  <si>
+    <t>Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services</t>
+  </si>
+  <si>
+    <t>Filter1</t>
+  </si>
+  <si>
+    <t>Filter2</t>
+  </si>
+  <si>
+    <t>Hotel Aryaas , 3.8 , 3,600 Ratings</t>
+  </si>
+  <si>
+    <t>The number rating is greater than 20</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Four Seasons Restaurant , 3.7 , 3,199 Ratings</t>
+  </si>
+  <si>
+    <t>Dosa Infinity For 99 Varieties Of Dosa , 3.6 , 220 Ratings</t>
+  </si>
+  <si>
+    <t>Guru Amuthas , 3.6 , 4,933 Ratings</t>
+  </si>
+  <si>
+    <t>Aasife Biriyani , 3.8 , 2,674 Ratings</t>
+  </si>
+  <si>
     <t>5K Car Care Pvt Ltd / 07411822389</t>
-  </si>
-  <si>
-    <t>Covai Tyres / 07383614773</t>
-  </si>
-  <si>
-    <t>Nexstep Auto Care / 08488802438</t>
-  </si>
-  <si>
-    <t>AK Tyres / 08460204265</t>
-  </si>
-  <si>
-    <t>Results(Hostel Name / Location)</t>
-  </si>
-  <si>
-    <t>Results(HotelName / Rating / People Rating)</t>
-  </si>
-  <si>
-    <t>SRS Ladies Hostel , PKD Nagar 1st Street Peelamedu, Coimbatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car Hire   Car Repair &amp; Services   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrap Dealers   Scrap Buyers   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Actual Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Search result should contains  "Car Washing Services" and "Saravanampatti, Coimbatore"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages,Format,Genre check box should be Enabled </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Search result should Contains coimbatore in Location</t>
-  </si>
-  <si>
-    <t>South Indian</t>
-  </si>
-  <si>
-    <t>Online Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The number rating Should be greater than 20</t>
-  </si>
-  <si>
-    <t>Both Non-AC and Sleeper Check box should be  Enabled</t>
-  </si>
-  <si>
-    <t>Both Non-AC and Sleeper Check box are Enabled</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>All the fields have 5 Results</t>
-  </si>
-  <si>
-    <t>Hotels Name / Rating</t>
-  </si>
-  <si>
-    <t>Restaurant Name / Rating</t>
-  </si>
-  <si>
-    <t>Coffee Shop Name / Rating</t>
-  </si>
-  <si>
-    <t>Travel Agents  / Rating</t>
-  </si>
-  <si>
-    <t>Things To Do / Rating</t>
-  </si>
-  <si>
-    <t>All the fields Should have 5 Results</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Plans Amounts Should be Less Than 1000 Rs</t>
-  </si>
-  <si>
-    <t>The Search result contains  gym/fitness</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Search result Contains coimbatore in Location</t>
-  </si>
-  <si>
-    <t>Guru Amuthas , 3.6 , 4,958 Ratings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The number rating is greater than 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages,Format,Genre check box are Enabled </t>
-  </si>
-  <si>
-    <t>Data : Unlimited | Validity : 1 day , 49</t>
-  </si>
-  <si>
-    <t>Data : 5GB | Validity : 7 days , 77</t>
-  </si>
-  <si>
-    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : All device access, Unlimited entertainment ; JioHotstar Super : Watch Live Sports, Movies, Exclusive Hotstar Specials &amp; more ; Zee5 Premium : Get access to Zee5 content, Subscription starts from the day of recharge, claim on Airtel Xstream Play App ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLiv, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNXT, and more on Airtel Xstream Play Premium, Download the app and start enjoying top hits today , 279</t>
-  </si>
-  <si>
-    <t>Data : 2GB | Details: 2GB data valid for the same day till midnight, Revised price for Rs 29 pack , 33</t>
-  </si>
-  <si>
-    <t>Data: 15GB | Validity: 30 days | Details: 20+ OTTs with Airtel Xstream Play for 30 days ; Airtel Xstream Play Premium (includes 22+ OTTs) : Enjoy 30 days full access to 22+ OTTs such as Sony LIV, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNxt and more on Airtel Xstream Play Premium. Download the app and start enjoying top hits today! , 181</t>
-  </si>
-  <si>
-    <t>Plans Amounts are Lesser Than 1000 Rs</t>
-  </si>
-  <si>
-    <t>Each Search Results Should have atleast one Result</t>
-  </si>
-  <si>
-    <t>Hotel Aryaas , 3.8 , 3,610 Ratings</t>
-  </si>
-  <si>
-    <t>Each Search Results have atleast one Result</t>
-  </si>
-  <si>
-    <t>Hotel Sahara Star , 4.4</t>
-  </si>
-  <si>
-    <t>Taj Lands End , 4.5</t>
-  </si>
-  <si>
-    <t>Trident Hotel , 4.5</t>
-  </si>
-  <si>
-    <t>JW Marriott Hotel , 4.5</t>
-  </si>
-  <si>
-    <t>Sofitel Mumbai Bkc , 4.6</t>
-  </si>
-  <si>
-    <t>Pizza By The Bay , 4.2</t>
-  </si>
-  <si>
-    <t>Hotel Ram Ashraya , 4.4</t>
-  </si>
-  <si>
-    <t>Leopold Cafe &amp; Bar , 4.3</t>
-  </si>
-  <si>
-    <t>Cafe Madras , 4.4</t>
-  </si>
-  <si>
-    <t>Gurukripa Restaurant , 4.3</t>
-  </si>
-  <si>
-    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
-  </si>
-  <si>
-    <t>Starbucks , 4.4</t>
-  </si>
-  <si>
-    <t>Starbucks , 4.3</t>
-  </si>
-  <si>
-    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
-  </si>
-  <si>
-    <t>Candies , 4.2</t>
-  </si>
-  <si>
-    <t>Trekhievers , 4.5</t>
-  </si>
-  <si>
-    <t>Trekpanda , 4.6</t>
-  </si>
-  <si>
-    <t>Trekkers United , 4.7</t>
-  </si>
-  <si>
-    <t>Go Holidays , 4.4</t>
-  </si>
-  <si>
-    <t>When , 4.6</t>
-  </si>
-  <si>
-    <t>Snow Kingdom (R City Mall) , 4.6</t>
-  </si>
-  <si>
-    <t>Water Kingdom , 4.3</t>
-  </si>
-  <si>
-    <t>Kidzania (R City Mall) , 4.4</t>
-  </si>
-  <si>
-    <t>Wonder Park , 4.1</t>
-  </si>
-  <si>
-    <t>Great Escape Water Park , 4.0</t>
-  </si>
-  <si>
-    <t>Four Seasons Restaurant , 3.7 , 3,207 Ratings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Search result should contains  gym/fitness</t>
-  </si>
-  <si>
-    <t>Yummy Garden Restaurant , 3.9 , 313 Ratings</t>
-  </si>
-  <si>
-    <t>Aasife Biriyani , 3.8 , 2,681 Ratings</t>
-  </si>
-  <si>
-    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
-  </si>
-  <si>
-    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:35 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 11:00 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 10:10 AM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 04:55 PM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:05 AM</t>
-  </si>
-  <si>
-    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
-  </si>
-  <si>
-    <t>The Cars Coimbatore / 09054493503</t>
-  </si>
-  <si>
-    <t>Nextgen Auto Shop / 08511973527</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1011,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -1016,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>24</v>
@@ -1025,16 +1037,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1043,7 +1055,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -1055,7 +1067,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -1067,7 +1079,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -1079,7 +1091,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -1118,22 +1130,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>12</v>
@@ -1141,25 +1153,25 @@
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="21">
         <v>8122537244</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0"/>
       <c r="J2" s="0"/>
@@ -1169,7 +1181,7 @@
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -1180,7 +1192,7 @@
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -1191,7 +1203,7 @@
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -1202,7 +1214,7 @@
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -1242,10 +1254,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>12</v>
@@ -1256,13 +1268,13 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981FCEC0-F4C0-4EE1-AC5D-892EEB96AE9E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1289,10 +1301,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>12</v>
@@ -1303,13 +1315,13 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1351,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1356,22 +1368,22 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -1380,7 +1392,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1389,7 +1401,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -1398,7 +1410,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -1407,7 +1419,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -1457,7 +1469,7 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1474,28 +1486,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1505,7 +1517,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -1518,7 +1530,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -1531,7 +1543,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -1544,7 +1556,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -1573,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55F038-62C3-4D2F-83DA-40C877767835}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,17 +1610,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="23"/>
+      <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1628,28 +1642,28 @@
         <v>4</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1660,7 +1674,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -1674,7 +1688,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
@@ -1688,7 +1702,7 @@
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -1702,7 +1716,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -1717,10 +1731,9 @@
       <c r="F7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="E2:E6"/>
@@ -1763,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>10</v>
@@ -1780,16 +1793,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1797,44 +1810,60 @@
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1872,25 +1901,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -1901,46 +1930,46 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -1949,19 +1978,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -1970,19 +1999,19 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -1991,19 +2020,19 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -2047,7 +2076,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -2067,23 +2096,23 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -2093,7 +2122,7 @@
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2103,7 +2132,7 @@
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -2113,7 +2142,7 @@
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -2159,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -2182,16 +2211,16 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2199,7 +2228,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -2210,7 +2239,7 @@
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -2221,7 +2250,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2232,7 +2261,7 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="167">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -510,6 +510,51 @@
   </si>
   <si>
     <t>5K Car Care Pvt Ltd / 07411822389</t>
+  </si>
+  <si>
+    <t>Languages, Format, Genre checkbox are Enabled</t>
+  </si>
+  <si>
+    <t>Movie: Materialists (English Movie)</t>
+  </si>
+  <si>
+    <t>Movie: Jurassic World Rebirth (English Movie)</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Dynamix Mall) , Above Shoppers Stop Near Chandan Cinema Vile Parle West Juhu , 10:25 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Infiniti Mall) , Near Goregaon Sports Complex Malad West , 08:45 AM</t>
+  </si>
+  <si>
+    <t>Cinepolis Cinema (Viviana Mall) , Near Jupiter Hospital Laxmi Nagar Thane West , 09:00 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Metro Junction Mall) , Near Shil Phata Patri Pool Netivalli Village Kalyan East , 09:00 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas , Opposite Acme Plaza Divine Child School Chakala Andheri East , 10:00 AM</t>
+  </si>
+  <si>
+    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : Unlimited ad-free movies, TV shows, and mobile games ; JioHotstar Super : Watch Live sports, Movies, Exclusive Hotstar Specials &amp; More; Zee5 Premium : Zee5 Premium subscription. Stream latest movies &amp; series on multiple devices. ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLIV, Lionsgate Play, Aha, Chaupal, Hoichoi &amp; more with Airtel Xstream Play premium. Download the app &amp; stream. , 279</t>
+  </si>
+  <si>
+    <t>Nextgen Auto Shop / 08511973527</t>
+  </si>
+  <si>
+    <t>Movie Time Cinemas (Cubic Mall) , Opposite Borla Society Near Golf Club Old Basant Cinema Building Chembur Camp Chembur East , 09:00 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Raghuleela Mall) , Opposite Vashi Railway Station Vashi , 08:45 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Thakur Mall) , Near Dahisar Checknaka Opposite Hotel Sun Shine Inn Dahisar East , 10:15 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Orion Mall) , Near Forest Colony Near ST Bus Depot Panvel , 09:05 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:25 AM</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>71</v>
@@ -1192,7 +1237,7 @@
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="15" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -2208,7 +2253,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>129</v>
@@ -2217,7 +2262,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>47</v>
@@ -2228,7 +2273,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -2239,7 +2284,7 @@
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -2250,7 +2295,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2261,13 +2306,16 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7" t="s" s="0">
+        <v>166</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
   </sheetData>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse workspace\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94673358-24BC-462F-AA9A-AB4C035A4D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95133BC3-9844-43E5-B88E-51585787E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="15" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="157">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Genre</t>
   </si>
   <si>
-    <t>comedy</t>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
   </si>
   <si>
     <t>Sub Menu</t>
-  </si>
-  <si>
-    <t>Filters</t>
   </si>
   <si>
     <t>Cuisines</t>
@@ -320,16 +314,199 @@
     <t>Plans Amounts Should be Less Than 1000 Rs</t>
   </si>
   <si>
-    <t>The Search result contains  gym/fitness</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The Search result Contains coimbatore in Location</t>
   </si>
   <si>
-    <t>Guru Amuthas , 3.6 , 4,958 Ratings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages,Format,Genre check box are Enabled </t>
+    <t>Each Search Results Should have atleast one Result</t>
+  </si>
+  <si>
+    <t>Hotel Sahara Star , 4.4</t>
+  </si>
+  <si>
+    <t>Taj Lands End , 4.5</t>
+  </si>
+  <si>
+    <t>Trident Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>JW Marriott Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>Sofitel Mumbai Bkc , 4.6</t>
+  </si>
+  <si>
+    <t>Pizza By The Bay , 4.2</t>
+  </si>
+  <si>
+    <t>Hotel Ram Ashraya , 4.4</t>
+  </si>
+  <si>
+    <t>Leopold Cafe &amp; Bar , 4.3</t>
+  </si>
+  <si>
+    <t>Cafe Madras , 4.4</t>
+  </si>
+  <si>
+    <t>Gurukripa Restaurant , 4.3</t>
+  </si>
+  <si>
+    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.4</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.3</t>
+  </si>
+  <si>
+    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
+  </si>
+  <si>
+    <t>Candies , 4.2</t>
+  </si>
+  <si>
+    <t>Trekhievers , 4.5</t>
+  </si>
+  <si>
+    <t>Trekpanda , 4.6</t>
+  </si>
+  <si>
+    <t>Trekkers United , 4.7</t>
+  </si>
+  <si>
+    <t>Go Holidays , 4.4</t>
+  </si>
+  <si>
+    <t>When , 4.6</t>
+  </si>
+  <si>
+    <t>Snow Kingdom (R City Mall) , 4.6</t>
+  </si>
+  <si>
+    <t>Water Kingdom , 4.3</t>
+  </si>
+  <si>
+    <t>Kidzania (R City Mall) , 4.4</t>
+  </si>
+  <si>
+    <t>Wonder Park , 4.1</t>
+  </si>
+  <si>
+    <t>Great Escape Water Park , 4.0</t>
+  </si>
+  <si>
+    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
+  </si>
+  <si>
+    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
+  </si>
+  <si>
+    <t>The Cars Coimbatore / 09054493503</t>
+  </si>
+  <si>
+    <t>Filter1</t>
+  </si>
+  <si>
+    <t>Filter2</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Movie: Jurassic World Rebirth (English Movie)</t>
+  </si>
+  <si>
+    <t>The Search result contains gym/fitness</t>
+  </si>
+  <si>
+    <t>Magizham Restaurant , 4.0 , 741 Ratings</t>
+  </si>
+  <si>
+    <t>The number rating is greater than 20</t>
+  </si>
+  <si>
+    <t>AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching</t>
+  </si>
+  <si>
+    <t>Each Search Result has at least one match</t>
+  </si>
+  <si>
+    <t>Car Hire   Car Repair &amp; Services</t>
+  </si>
+  <si>
+    <t>AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services</t>
+  </si>
+  <si>
+    <t>Scrap Dealers   Scrap Buyers</t>
+  </si>
+  <si>
+    <t>Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services</t>
+  </si>
+  <si>
+    <t>Filter3</t>
+  </si>
+  <si>
+    <t>5K Car Care Pvt Ltd / 07411822389</t>
+  </si>
+  <si>
+    <t>Balaji Lodge &amp; Mens Hostel , NH Road Town Hall, Coimbatore</t>
+  </si>
+  <si>
+    <t>Whats Up Mens Hostel , E B Colony Saravanampatti, Coimbatore</t>
+  </si>
+  <si>
+    <t>PSG Tech Additional Hostel , Nehru Street Peelamedu, Coimbatore</t>
+  </si>
+  <si>
+    <t>The Executive Grande , Nagar Entrance Saravanampatti, Coimbatore</t>
+  </si>
+  <si>
+    <t>The Search result Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>Guru Amuthas , 3.6 , 4,933 Ratings</t>
+  </si>
+  <si>
+    <t>Hotel Aryaas , 3.8 , 3,600 Ratings</t>
+  </si>
+  <si>
+    <t>Rr Mess , 3.9 , 1,249 Ratings</t>
+  </si>
+  <si>
+    <t>Pandiya Nadu Restaurant , 3.6 , 1,151 Ratings</t>
+  </si>
+  <si>
+    <t>Languages, Format, Genre checkbox are Enabled</t>
+  </si>
+  <si>
+    <t>Moviemax Cinemas (Prime Mall) , Near Kanakia Police Station Shiver Garden Beverly Park Mira Road East , 09:00 AM</t>
+  </si>
+  <si>
+    <t>MovieMax Cinemas , Near Sion Circle Opposite Peninsula Restaurant Sion , 09:00 AM</t>
+  </si>
+  <si>
+    <t>Cinepolis Cinema (Viviana Mall) , Near Jupiter Hospital Laxmi Nagar Thane West , 09:00 AM</t>
+  </si>
+  <si>
+    <t>PVR Icon Cinemas (Infiniti Mall) , Near Lotus Petrol PumpVersova Phase D Andheri West , 11:05 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Orion Mall) , Near Forest Colony Near ST Bus Depot Panvel , 09:05 AM</t>
+  </si>
+  <si>
+    <t>Nextgen Auto Shop / 08511973527</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 09:00 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Metro Junction Mall) , Near Shil Phata Patri Pool Netivalli Village Kalyan East , 09:00 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 10:25 AM</t>
+  </si>
+  <si>
+    <t>Miraj Cinemas (Dattani Square Shopping Mall) , Next to Big Bazaar Sai Service Papdy Near Papdy Talao and D Mart Vasai West , 09:15 AM</t>
   </si>
   <si>
     <t>Data : Unlimited | Validity : 1 day , 49</t>
@@ -338,7 +515,7 @@
     <t>Data : 5GB | Validity : 7 days , 77</t>
   </si>
   <si>
-    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : All device access, Unlimited entertainment ; JioHotstar Super : Watch Live Sports, Movies, Exclusive Hotstar Specials &amp; more ; Zee5 Premium : Get access to Zee5 content, Subscription starts from the day of recharge, claim on Airtel Xstream Play App ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLiv, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNXT, and more on Airtel Xstream Play Premium, Download the app and start enjoying top hits today , 279</t>
+    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : Unlimited ad-free movies, TV shows, and mobile games ; JioHotstar Super : Watch Live sports, Movies, Exclusive Hotstar Specials &amp; More; Zee5 Premium : Zee5 Premium subscription. Stream latest movies &amp; series on multiple devices. ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLIV, Lionsgate Play, Aha, Chaupal, Hoichoi &amp; more with Airtel Xstream Play premium. Download the app &amp; stream. , 279</t>
   </si>
   <si>
     <t>Data : 2GB | Details: 2GB data valid for the same day till midnight, Revised price for Rs 29 pack , 33</t>
@@ -348,213 +525,6 @@
   </si>
   <si>
     <t>Plans Amounts are Lesser Than 1000 Rs</t>
-  </si>
-  <si>
-    <t>Each Search Results Should have atleast one Result</t>
-  </si>
-  <si>
-    <t>Hotel Aryaas , 3.8 , 3,610 Ratings</t>
-  </si>
-  <si>
-    <t>Hotel Sahara Star , 4.4</t>
-  </si>
-  <si>
-    <t>Taj Lands End , 4.5</t>
-  </si>
-  <si>
-    <t>Trident Hotel , 4.5</t>
-  </si>
-  <si>
-    <t>JW Marriott Hotel , 4.5</t>
-  </si>
-  <si>
-    <t>Sofitel Mumbai Bkc , 4.6</t>
-  </si>
-  <si>
-    <t>Pizza By The Bay , 4.2</t>
-  </si>
-  <si>
-    <t>Hotel Ram Ashraya , 4.4</t>
-  </si>
-  <si>
-    <t>Leopold Cafe &amp; Bar , 4.3</t>
-  </si>
-  <si>
-    <t>Cafe Madras , 4.4</t>
-  </si>
-  <si>
-    <t>Gurukripa Restaurant , 4.3</t>
-  </si>
-  <si>
-    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
-  </si>
-  <si>
-    <t>Starbucks , 4.4</t>
-  </si>
-  <si>
-    <t>Starbucks , 4.3</t>
-  </si>
-  <si>
-    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
-  </si>
-  <si>
-    <t>Candies , 4.2</t>
-  </si>
-  <si>
-    <t>Trekhievers , 4.5</t>
-  </si>
-  <si>
-    <t>Trekpanda , 4.6</t>
-  </si>
-  <si>
-    <t>Trekkers United , 4.7</t>
-  </si>
-  <si>
-    <t>Go Holidays , 4.4</t>
-  </si>
-  <si>
-    <t>When , 4.6</t>
-  </si>
-  <si>
-    <t>Snow Kingdom (R City Mall) , 4.6</t>
-  </si>
-  <si>
-    <t>Water Kingdom , 4.3</t>
-  </si>
-  <si>
-    <t>Kidzania (R City Mall) , 4.4</t>
-  </si>
-  <si>
-    <t>Wonder Park , 4.1</t>
-  </si>
-  <si>
-    <t>Great Escape Water Park , 4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Search result should contains  gym/fitness</t>
-  </si>
-  <si>
-    <t>Yummy Garden Restaurant , 3.9 , 313 Ratings</t>
-  </si>
-  <si>
-    <t>Aasife Biriyani , 3.8 , 2,681 Ratings</t>
-  </si>
-  <si>
-    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
-  </si>
-  <si>
-    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:35 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 11:00 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 10:10 AM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 04:55 PM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:05 AM</t>
-  </si>
-  <si>
-    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
-  </si>
-  <si>
-    <t>The Cars Coimbatore / 09054493503</t>
-  </si>
-  <si>
-    <t>AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching</t>
-  </si>
-  <si>
-    <t>Each Search Result has at least one match</t>
-  </si>
-  <si>
-    <t>Car Hire   Car Repair &amp; Services</t>
-  </si>
-  <si>
-    <t>AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services</t>
-  </si>
-  <si>
-    <t>Scrap Dealers   Scrap Buyers</t>
-  </si>
-  <si>
-    <t>Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services</t>
-  </si>
-  <si>
-    <t>Filter1</t>
-  </si>
-  <si>
-    <t>Filter2</t>
-  </si>
-  <si>
-    <t>Hotel Aryaas , 3.8 , 3,600 Ratings</t>
-  </si>
-  <si>
-    <t>The number rating is greater than 20</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Four Seasons Restaurant , 3.7 , 3,199 Ratings</t>
-  </si>
-  <si>
-    <t>Dosa Infinity For 99 Varieties Of Dosa , 3.6 , 220 Ratings</t>
-  </si>
-  <si>
-    <t>Guru Amuthas , 3.6 , 4,933 Ratings</t>
-  </si>
-  <si>
-    <t>Aasife Biriyani , 3.8 , 2,674 Ratings</t>
-  </si>
-  <si>
-    <t>5K Car Care Pvt Ltd / 07411822389</t>
-  </si>
-  <si>
-    <t>Languages, Format, Genre checkbox are Enabled</t>
-  </si>
-  <si>
-    <t>Movie: Materialists (English Movie)</t>
-  </si>
-  <si>
-    <t>Movie: Jurassic World Rebirth (English Movie)</t>
-  </si>
-  <si>
-    <t>PVR Cinemas (Dynamix Mall) , Above Shoppers Stop Near Chandan Cinema Vile Parle West Juhu , 10:25 AM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas (Infiniti Mall) , Near Goregaon Sports Complex Malad West , 08:45 AM</t>
-  </si>
-  <si>
-    <t>Cinepolis Cinema (Viviana Mall) , Near Jupiter Hospital Laxmi Nagar Thane West , 09:00 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Metro Junction Mall) , Near Shil Phata Patri Pool Netivalli Village Kalyan East , 09:00 AM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas , Opposite Acme Plaza Divine Child School Chakala Andheri East , 10:00 AM</t>
-  </si>
-  <si>
-    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : Unlimited ad-free movies, TV shows, and mobile games ; JioHotstar Super : Watch Live sports, Movies, Exclusive Hotstar Specials &amp; More; Zee5 Premium : Zee5 Premium subscription. Stream latest movies &amp; series on multiple devices. ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLIV, Lionsgate Play, Aha, Chaupal, Hoichoi &amp; more with Airtel Xstream Play premium. Download the app &amp; stream. , 279</t>
-  </si>
-  <si>
-    <t>Nextgen Auto Shop / 08511973527</t>
-  </si>
-  <si>
-    <t>Movie Time Cinemas (Cubic Mall) , Opposite Borla Society Near Golf Club Old Basant Cinema Building Chembur Camp Chembur East , 09:00 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Raghuleela Mall) , Opposite Vashi Railway Station Vashi , 08:45 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Thakur Mall) , Near Dahisar Checknaka Opposite Hotel Sun Shine Inn Dahisar East , 10:15 AM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas (Orion Mall) , Near Forest Colony Near ST Bus Depot Panvel , 09:05 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:25 AM</t>
   </si>
 </sst>
 </file>
@@ -686,12 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,13 +1018,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -1073,25 +1041,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="22">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1100,7 +1068,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -1112,7 +1080,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -1124,7 +1092,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -1136,7 +1104,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -1158,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2078910E-89DC-4A82-8AE7-BC0CD9CFD94E}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F2" sqref="F2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1175,22 +1143,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>12</v>
@@ -1198,69 +1166,69 @@
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="21">
         <v>8122537244</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>154</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>155</v>
+      </c>
       <c r="J2" s="0"/>
+      <c r="K2" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>45</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="15" t="s">
-        <v>160</v>
-      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1299,10 +1267,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>12</v>
@@ -1313,13 +1281,13 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1300,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1346,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>12</v>
@@ -1360,13 +1328,13 @@
         <v>1234567890</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DA57E-BE91-4D3D-BA53-96378C61B11C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1391,12 +1359,12 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1408,63 +1376,75 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -1483,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB888E4-60A2-4DA7-9929-293CC421EBF6}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,13 +1488,17 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1531,28 +1515,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1562,7 +1549,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -1575,7 +1562,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -1588,7 +1575,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -1601,7 +1588,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -1611,10 +1598,9 @@
       <c r="G7" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="I2:I6"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="C2:C6"/>
@@ -1630,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55F038-62C3-4D2F-83DA-40C877767835}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1655,19 +1641,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1687,40 +1673,38 @@
         <v>4</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
-      <c r="C3" s="24"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
@@ -1728,13 +1712,11 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
@@ -1742,13 +1724,11 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -1756,13 +1736,11 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="24"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
@@ -1797,7 +1775,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1821,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>10</v>
@@ -1838,16 +1816,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1855,14 +1833,14 @@
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1870,14 +1848,14 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1885,14 +1863,14 @@
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1900,14 +1878,14 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1946,25 +1924,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -1975,46 +1953,46 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -2023,19 +2001,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -2044,19 +2022,19 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2065,19 +2043,19 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -2121,7 +2099,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -2141,23 +2119,23 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -2167,7 +2145,7 @@
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2177,7 +2155,7 @@
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -2187,7 +2165,7 @@
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -2210,7 +2188,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F2" sqref="F2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2233,7 +2211,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -2253,19 +2231,17 @@
         <v>20</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2273,7 +2249,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -2284,7 +2260,7 @@
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -2295,7 +2271,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2306,7 +2282,7 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -2314,7 +2290,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D7" t="s" s="0">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F7" s="11"/>
     </row>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse workspace\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95133BC3-9844-43E5-B88E-51585787E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143EEE3E-5CD1-4198-A3D5-D7F2A34EC24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="8" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="15" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -204,38 +204,9 @@
     <t>Personal Gym Trainers</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Name: Whats Up Mens Hostel
-Location: E B Colony Saravanampatti, Coimbatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Name: PSG Tech Additional Hostel
-Location: Nehru Street Peelamedu, Coimbatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Name: The Executive Grande
-Location: Nagar Entrance Saravanampatti, Coimbatore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Name: SRS Ladies Hostel
-Location: PKD Nagar 1st Street Peelamedu, Coimbatore</t>
-  </si>
-  <si>
     <t>MRM Travels , 12:40 AM , Rs:600</t>
   </si>
   <si>
-    <t>Parveen Travels , 8:30 PM , Rs:1050</t>
-  </si>
-  <si>
-    <t>YBM Travels(BLM) , 8:30 PM , Rs:1200</t>
-  </si>
-  <si>
-    <t>LION Travels , 8:40 PM , Rs:2000</t>
-  </si>
-  <si>
     <t>Results(Car Washing Service/Contact Nuber)</t>
   </si>
   <si>
@@ -269,9 +240,6 @@
     <t xml:space="preserve">Languages,Format,Genre check box should be Enabled </t>
   </si>
   <si>
-    <t xml:space="preserve"> The Search result should Contains coimbatore in Location</t>
-  </si>
-  <si>
     <t>South Indian</t>
   </si>
   <si>
@@ -311,220 +279,217 @@
     <t>Data</t>
   </si>
   <si>
+    <t>Each Search Results Should have atleast one Result</t>
+  </si>
+  <si>
+    <t>Hotel Sahara Star , 4.4</t>
+  </si>
+  <si>
+    <t>Taj Lands End , 4.5</t>
+  </si>
+  <si>
+    <t>Trident Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>JW Marriott Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>Pizza By The Bay , 4.2</t>
+  </si>
+  <si>
+    <t>Hotel Ram Ashraya , 4.4</t>
+  </si>
+  <si>
+    <t>Leopold Cafe &amp; Bar , 4.3</t>
+  </si>
+  <si>
+    <t>Cafe Madras , 4.4</t>
+  </si>
+  <si>
+    <t>Gurukripa Restaurant , 4.3</t>
+  </si>
+  <si>
+    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.4</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.3</t>
+  </si>
+  <si>
+    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
+  </si>
+  <si>
+    <t>Candies , 4.2</t>
+  </si>
+  <si>
+    <t>Trekhievers , 4.5</t>
+  </si>
+  <si>
+    <t>Trekpanda , 4.6</t>
+  </si>
+  <si>
+    <t>Trekkers United , 4.7</t>
+  </si>
+  <si>
+    <t>Go Holidays , 4.4</t>
+  </si>
+  <si>
+    <t>When , 4.6</t>
+  </si>
+  <si>
+    <t>Water Kingdom , 4.3</t>
+  </si>
+  <si>
+    <t>Kidzania (R City Mall) , 4.4</t>
+  </si>
+  <si>
+    <t>Wonder Park , 4.1</t>
+  </si>
+  <si>
+    <t>Great Escape Water Park , 4.0</t>
+  </si>
+  <si>
+    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
+  </si>
+  <si>
+    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
+  </si>
+  <si>
+    <t>The Cars Coimbatore / 09054493503</t>
+  </si>
+  <si>
+    <t>Filter1</t>
+  </si>
+  <si>
+    <t>Filter2</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>The number rating is greater than 20</t>
+  </si>
+  <si>
+    <t>AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching</t>
+  </si>
+  <si>
+    <t>Each Search Result has at least one match</t>
+  </si>
+  <si>
+    <t>Car Hire   Car Repair &amp; Services</t>
+  </si>
+  <si>
+    <t>AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services</t>
+  </si>
+  <si>
+    <t>Scrap Dealers   Scrap Buyers</t>
+  </si>
+  <si>
+    <t>Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services</t>
+  </si>
+  <si>
+    <t>Filter3</t>
+  </si>
+  <si>
+    <t>Whats Up Mens Hostel , E B Colony Saravanampatti, Coimbatore</t>
+  </si>
+  <si>
+    <t>The Search result Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>Languages, Format, Genre checkbox are Enabled</t>
+  </si>
+  <si>
+    <t>Aasife Biriyani , 3.8 , 2,674 Ratings</t>
+  </si>
+  <si>
+    <t>ITC Maratha , 4.6</t>
+  </si>
+  <si>
+    <t>Snow Kingdom (R City Mall) , 4.7</t>
+  </si>
+  <si>
+    <t>A1 Travels , 9:00 AM , Rs:700</t>
+  </si>
+  <si>
+    <t>SNB Travels , 11:30 AM , Rs:2500</t>
+  </si>
+  <si>
+    <t>No 1 Air Travels , 1:45 PM , Rs:950</t>
+  </si>
+  <si>
+    <t>Cinepolis Cinema (High Street Mall) , D N Nagar Samata Sainath Nagar Near Big Bazaar Majiwada , 10:25 AM</t>
+  </si>
+  <si>
+    <t>Balaji Lodge &amp; Mens Hostel , NH Road Town Hall, Coimbatore</t>
+  </si>
+  <si>
+    <t>PSG Tech Additional Hostel , Nehru Street Peelamedu, Coimbatore</t>
+  </si>
+  <si>
+    <t>The Executive Grande , Nagar Entrance Saravanampatti, Coimbatore</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
     <t>Plans Amounts Should be Less Than 1000 Rs</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Search result Contains coimbatore in Location</t>
-  </si>
-  <si>
-    <t>Each Search Results Should have atleast one Result</t>
-  </si>
-  <si>
-    <t>Hotel Sahara Star , 4.4</t>
-  </si>
-  <si>
-    <t>Taj Lands End , 4.5</t>
-  </si>
-  <si>
-    <t>Trident Hotel , 4.5</t>
-  </si>
-  <si>
-    <t>JW Marriott Hotel , 4.5</t>
-  </si>
-  <si>
-    <t>Sofitel Mumbai Bkc , 4.6</t>
-  </si>
-  <si>
-    <t>Pizza By The Bay , 4.2</t>
-  </si>
-  <si>
-    <t>Hotel Ram Ashraya , 4.4</t>
-  </si>
-  <si>
-    <t>Leopold Cafe &amp; Bar , 4.3</t>
-  </si>
-  <si>
-    <t>Cafe Madras , 4.4</t>
-  </si>
-  <si>
-    <t>Gurukripa Restaurant , 4.3</t>
-  </si>
-  <si>
-    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
-  </si>
-  <si>
-    <t>Starbucks , 4.4</t>
-  </si>
-  <si>
-    <t>Starbucks , 4.3</t>
-  </si>
-  <si>
-    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
-  </si>
-  <si>
-    <t>Candies , 4.2</t>
-  </si>
-  <si>
-    <t>Trekhievers , 4.5</t>
-  </si>
-  <si>
-    <t>Trekpanda , 4.6</t>
-  </si>
-  <si>
-    <t>Trekkers United , 4.7</t>
-  </si>
-  <si>
-    <t>Go Holidays , 4.4</t>
-  </si>
-  <si>
-    <t>When , 4.6</t>
-  </si>
-  <si>
-    <t>Snow Kingdom (R City Mall) , 4.6</t>
-  </si>
-  <si>
-    <t>Water Kingdom , 4.3</t>
-  </si>
-  <si>
-    <t>Kidzania (R City Mall) , 4.4</t>
-  </si>
-  <si>
-    <t>Wonder Park , 4.1</t>
-  </si>
-  <si>
-    <t>Great Escape Water Park , 4.0</t>
-  </si>
-  <si>
-    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
-  </si>
-  <si>
-    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
-  </si>
-  <si>
-    <t>The Cars Coimbatore / 09054493503</t>
-  </si>
-  <si>
-    <t>Filter1</t>
-  </si>
-  <si>
-    <t>Filter2</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Movie: Jurassic World Rebirth (English Movie)</t>
+    <t>Four Seasons Restaurant , 3.7 , 3,199 Ratings</t>
+  </si>
+  <si>
+    <t>Guru Amuthas , 3.6 , 4,933 Ratings</t>
+  </si>
+  <si>
+    <t>Hotel Aryaas , 3.9 , 3,601 Ratings</t>
+  </si>
+  <si>
+    <t>Curry Factory , 4.2 , 3,045 Ratings</t>
+  </si>
+  <si>
+    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 04:55 PM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:35 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 10:10 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 11:00 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:05 AM</t>
+  </si>
+  <si>
+    <t>Data : Unlimited | Validity : 1 day , 49</t>
+  </si>
+  <si>
+    <t>Data : 5GB | Validity : 7 days , 77</t>
+  </si>
+  <si>
+    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : Unlimited ad-free movies, TV shows, and mobile games ; JioHotstar Super : Watch Live sports, Movies, Exclusive Hotstar Specials &amp; More; Zee5 Premium : Zee5 Premium subscription. Stream latest movies &amp; series on multiple devices. ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLIV, Lionsgate Play, Aha, Chaupal, Hoichoi &amp; more with Airtel Xstream Play premium. Download the app &amp; stream. , 279</t>
+  </si>
+  <si>
+    <t>Data : 2GB | Details: 2GB data valid for the same day till midnight, Revised price for Rs 29 pack , 33</t>
+  </si>
+  <si>
+    <t>Data: 15GB | Validity: 30 days | Details: 20+ OTTs with Airtel Xstream Play for 30 days ; Airtel Xstream Play Premium (includes 22+ OTTs) : Enjoy 30 days full access to 22+ OTTs such as Sony LIV, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNxt and more on Airtel Xstream Play Premium. Download the app and start enjoying top hits today! , 181</t>
+  </si>
+  <si>
+    <t>Plans Amounts are Lesser Than 1000 Rs</t>
+  </si>
+  <si>
+    <t>The Search result should  Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>The Search should result contains gym/fitness</t>
   </si>
   <si>
     <t>The Search result contains gym/fitness</t>
-  </si>
-  <si>
-    <t>Magizham Restaurant , 4.0 , 741 Ratings</t>
-  </si>
-  <si>
-    <t>The number rating is greater than 20</t>
-  </si>
-  <si>
-    <t>AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching</t>
-  </si>
-  <si>
-    <t>Each Search Result has at least one match</t>
-  </si>
-  <si>
-    <t>Car Hire   Car Repair &amp; Services</t>
-  </si>
-  <si>
-    <t>AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services</t>
-  </si>
-  <si>
-    <t>Scrap Dealers   Scrap Buyers</t>
-  </si>
-  <si>
-    <t>Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services</t>
-  </si>
-  <si>
-    <t>Filter3</t>
-  </si>
-  <si>
-    <t>5K Car Care Pvt Ltd / 07411822389</t>
-  </si>
-  <si>
-    <t>Balaji Lodge &amp; Mens Hostel , NH Road Town Hall, Coimbatore</t>
-  </si>
-  <si>
-    <t>Whats Up Mens Hostel , E B Colony Saravanampatti, Coimbatore</t>
-  </si>
-  <si>
-    <t>PSG Tech Additional Hostel , Nehru Street Peelamedu, Coimbatore</t>
-  </si>
-  <si>
-    <t>The Executive Grande , Nagar Entrance Saravanampatti, Coimbatore</t>
-  </si>
-  <si>
-    <t>The Search result Contains coimbatore in Location</t>
-  </si>
-  <si>
-    <t>Guru Amuthas , 3.6 , 4,933 Ratings</t>
-  </si>
-  <si>
-    <t>Hotel Aryaas , 3.8 , 3,600 Ratings</t>
-  </si>
-  <si>
-    <t>Rr Mess , 3.9 , 1,249 Ratings</t>
-  </si>
-  <si>
-    <t>Pandiya Nadu Restaurant , 3.6 , 1,151 Ratings</t>
-  </si>
-  <si>
-    <t>Languages, Format, Genre checkbox are Enabled</t>
-  </si>
-  <si>
-    <t>Moviemax Cinemas (Prime Mall) , Near Kanakia Police Station Shiver Garden Beverly Park Mira Road East , 09:00 AM</t>
-  </si>
-  <si>
-    <t>MovieMax Cinemas , Near Sion Circle Opposite Peninsula Restaurant Sion , 09:00 AM</t>
-  </si>
-  <si>
-    <t>Cinepolis Cinema (Viviana Mall) , Near Jupiter Hospital Laxmi Nagar Thane West , 09:00 AM</t>
-  </si>
-  <si>
-    <t>PVR Icon Cinemas (Infiniti Mall) , Near Lotus Petrol PumpVersova Phase D Andheri West , 11:05 AM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas (Orion Mall) , Near Forest Colony Near ST Bus Depot Panvel , 09:05 AM</t>
-  </si>
-  <si>
-    <t>Nextgen Auto Shop / 08511973527</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 09:00 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Metro Junction Mall) , Near Shil Phata Patri Pool Netivalli Village Kalyan East , 09:00 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 10:25 AM</t>
-  </si>
-  <si>
-    <t>Miraj Cinemas (Dattani Square Shopping Mall) , Next to Big Bazaar Sai Service Papdy Near Papdy Talao and D Mart Vasai West , 09:15 AM</t>
-  </si>
-  <si>
-    <t>Data : Unlimited | Validity : 1 day , 49</t>
-  </si>
-  <si>
-    <t>Data : 5GB | Validity : 7 days , 77</t>
-  </si>
-  <si>
-    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : Unlimited ad-free movies, TV shows, and mobile games ; JioHotstar Super : Watch Live sports, Movies, Exclusive Hotstar Specials &amp; More; Zee5 Premium : Zee5 Premium subscription. Stream latest movies &amp; series on multiple devices. ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLIV, Lionsgate Play, Aha, Chaupal, Hoichoi &amp; more with Airtel Xstream Play premium. Download the app &amp; stream. , 279</t>
-  </si>
-  <si>
-    <t>Data : 2GB | Details: 2GB data valid for the same day till midnight, Revised price for Rs 29 pack , 33</t>
-  </si>
-  <si>
-    <t>Data: 15GB | Validity: 30 days | Details: 20+ OTTs with Airtel Xstream Play for 30 days ; Airtel Xstream Play Premium (includes 22+ OTTs) : Enjoy 30 days full access to 22+ OTTs such as Sony LIV, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNxt and more on Airtel Xstream Play Premium. Download the app and start enjoying top hits today! , 181</t>
-  </si>
-  <si>
-    <t>Plans Amounts are Lesser Than 1000 Rs</t>
   </si>
 </sst>
 </file>
@@ -569,7 +534,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -592,11 +557,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -659,7 +661,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,7 +1043,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -1050,13 +1069,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>45</v>
@@ -1068,7 +1087,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -1080,7 +1099,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -1092,7 +1111,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -1104,7 +1123,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -1129,7 +1148,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1141,7 +1160,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
@@ -1155,16 +1174,16 @@
         <v>44</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>31</v>
       </c>
@@ -1172,63 +1191,65 @@
         <v>8122537244</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>155</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H2" s="0"/>
       <c r="J2" s="0"/>
-      <c r="K2" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1345,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DA57E-BE91-4D3D-BA53-96378C61B11C}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1359,7 +1380,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
@@ -1384,28 +1405,16 @@
         <v>46</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="I2" t="s" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>47</v>
@@ -1414,7 +1423,7 @@
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>48</v>
@@ -1423,7 +1432,7 @@
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>49</v>
@@ -1432,7 +1441,7 @@
       <c r="D5" s="21"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>50</v>
@@ -1441,7 +1450,7 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>51</v>
@@ -1463,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB888E4-60A2-4DA7-9929-293CC421EBF6}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,6 +1488,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="70.7265625"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="27.54296875"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="9" max="9" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1488,17 +1498,17 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>129</v>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1527,19 +1537,16 @@
         <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1549,7 +1556,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -1562,7 +1569,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -1575,7 +1582,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -1588,7 +1595,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -1616,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55F038-62C3-4D2F-83DA-40C877767835}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J6"/>
     </sheetView>
   </sheetViews>
@@ -1624,9 +1631,9 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="13.6328125"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.6328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7265625"/>
+    <col min="4" max="4" customWidth="true" width="20.26953125"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.1796875"/>
+    <col min="6" max="6" customWidth="true" width="18.90625"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="72.90625"/>
     <col min="8" max="8" customWidth="true" width="28.54296875"/>
     <col min="9" max="9" customWidth="true" width="26.0"/>
@@ -1647,13 +1654,13 @@
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -1676,22 +1683,22 @@
         <v>26</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>45</v>
@@ -1704,7 +1711,9 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
@@ -1716,7 +1725,9 @@
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
@@ -1728,7 +1739,9 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -1740,7 +1753,9 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
@@ -1774,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46894FF9-5F6E-4176-8D49-2E0E68A2167F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1816,13 +1831,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>45</v>
@@ -1833,11 +1848,11 @@
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>45</v>
@@ -1848,11 +1863,11 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>45</v>
@@ -1863,11 +1878,11 @@
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>45</v>
@@ -1878,11 +1893,11 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>45</v>
@@ -1902,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBFA65-94E1-42A9-80AF-5BD03C74121D}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1924,25 +1939,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>12</v>
@@ -1953,25 +1968,25 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>45</v>
@@ -1980,19 +1995,19 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -2001,19 +2016,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -2022,19 +2037,19 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2043,19 +2058,19 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
@@ -2077,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD46BD13-A7EB-4D59-8C5A-7A8827BC21B6}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2119,13 +2134,13 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>45</v>
@@ -2135,7 +2150,7 @@
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -2145,7 +2160,7 @@
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2155,7 +2170,7 @@
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -2165,7 +2180,7 @@
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -2187,13 +2202,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38DB7D2-E491-4117-BA17-3AAF90B77DB8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="3" max="3" customWidth="true" width="8.7265625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="91.26953125"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="41.54296875"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="25.1796875"/>
@@ -2223,85 +2239,92 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="C2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+        <v>135</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+        <v>136</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+        <v>138</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+        <v>137</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D7" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="F7" s="11"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse workspace\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143EEE3E-5CD1-4198-A3D5-D7F2A34EC24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C37174-26F2-4372-99C4-F20EEA4A515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="8" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="9" xr2:uid="{E384328D-B255-415F-9F4B-531FE3AF6F61}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="15" r:id="rId1"/>
@@ -23,11 +23,10 @@
     <sheet name="TC008" sheetId="8" r:id="rId8"/>
     <sheet name="TC009" sheetId="9" r:id="rId9"/>
     <sheet name="TC010" sheetId="13" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -255,248 +254,247 @@
     <t>Expected Result</t>
   </si>
   <si>
+    <t>Hotels Name / Rating</t>
+  </si>
+  <si>
+    <t>Restaurant Name / Rating</t>
+  </si>
+  <si>
+    <t>Coffee Shop Name / Rating</t>
+  </si>
+  <si>
+    <t>Travel Agents  / Rating</t>
+  </si>
+  <si>
+    <t>Things To Do / Rating</t>
+  </si>
+  <si>
+    <t>All the fields Should have 5 Results</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Each Search Results Should have atleast one Result</t>
+  </si>
+  <si>
+    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
+  </si>
+  <si>
+    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
+  </si>
+  <si>
+    <t>The Cars Coimbatore / 09054493503</t>
+  </si>
+  <si>
+    <t>Filter1</t>
+  </si>
+  <si>
+    <t>Filter2</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>The number rating is greater than 20</t>
+  </si>
+  <si>
+    <t>AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching</t>
+  </si>
+  <si>
+    <t>Each Search Result has at least one match</t>
+  </si>
+  <si>
+    <t>Car Hire   Car Repair &amp; Services</t>
+  </si>
+  <si>
+    <t>AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services</t>
+  </si>
+  <si>
+    <t>Scrap Dealers   Scrap Buyers</t>
+  </si>
+  <si>
+    <t>Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services</t>
+  </si>
+  <si>
+    <t>Filter3</t>
+  </si>
+  <si>
+    <t>Whats Up Mens Hostel , E B Colony Saravanampatti, Coimbatore</t>
+  </si>
+  <si>
+    <t>The Search result Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>Languages, Format, Genre checkbox are Enabled</t>
+  </si>
+  <si>
+    <t>Aasife Biriyani , 3.8 , 2,674 Ratings</t>
+  </si>
+  <si>
+    <t>A1 Travels , 9:00 AM , Rs:700</t>
+  </si>
+  <si>
+    <t>Cinepolis Cinema (High Street Mall) , D N Nagar Samata Sainath Nagar Near Big Bazaar Majiwada , 10:25 AM</t>
+  </si>
+  <si>
+    <t>Balaji Lodge &amp; Mens Hostel , NH Road Town Hall, Coimbatore</t>
+  </si>
+  <si>
+    <t>PSG Tech Additional Hostel , Nehru Street Peelamedu, Coimbatore</t>
+  </si>
+  <si>
+    <t>The Executive Grande , Nagar Entrance Saravanampatti, Coimbatore</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>Plans Amounts Should be Less Than 1000 Rs</t>
+  </si>
+  <si>
+    <t>Four Seasons Restaurant , 3.7 , 3,199 Ratings</t>
+  </si>
+  <si>
+    <t>Guru Amuthas , 3.6 , 4,933 Ratings</t>
+  </si>
+  <si>
+    <t>Hotel Aryaas , 3.9 , 3,601 Ratings</t>
+  </si>
+  <si>
+    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 04:55 PM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:35 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 10:10 AM</t>
+  </si>
+  <si>
+    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 11:00 AM</t>
+  </si>
+  <si>
+    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:05 AM</t>
+  </si>
+  <si>
+    <t>Data : Unlimited | Validity : 1 day , 49</t>
+  </si>
+  <si>
+    <t>Data : 5GB | Validity : 7 days , 77</t>
+  </si>
+  <si>
+    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : Unlimited ad-free movies, TV shows, and mobile games ; JioHotstar Super : Watch Live sports, Movies, Exclusive Hotstar Specials &amp; More; Zee5 Premium : Zee5 Premium subscription. Stream latest movies &amp; series on multiple devices. ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLIV, Lionsgate Play, Aha, Chaupal, Hoichoi &amp; more with Airtel Xstream Play premium. Download the app &amp; stream. , 279</t>
+  </si>
+  <si>
+    <t>Data : 2GB | Details: 2GB data valid for the same day till midnight, Revised price for Rs 29 pack , 33</t>
+  </si>
+  <si>
+    <t>Data: 15GB | Validity: 30 days | Details: 20+ OTTs with Airtel Xstream Play for 30 days ; Airtel Xstream Play Premium (includes 22+ OTTs) : Enjoy 30 days full access to 22+ OTTs such as Sony LIV, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNxt and more on Airtel Xstream Play Premium. Download the app and start enjoying top hits today! , 181</t>
+  </si>
+  <si>
+    <t>Plans Amounts are Lesser Than 1000 Rs</t>
+  </si>
+  <si>
+    <t>The Search result should  Contains coimbatore in Location</t>
+  </si>
+  <si>
+    <t>The Search should result contains gym/fitness</t>
+  </si>
+  <si>
+    <t>The Search result contains gym/fitness</t>
+  </si>
+  <si>
+    <t>Mohabbath Restaurant , 4.0 , 1,704 Ratings</t>
+  </si>
+  <si>
+    <t>Krish Travels , 6:30 AM , Rs:950</t>
+  </si>
+  <si>
+    <t>Krish Travels , 8:45 AM , Rs:950</t>
+  </si>
+  <si>
+    <t>Hotel Sahara Star , 4.4</t>
+  </si>
+  <si>
+    <t>Taj Lands End , 4.5</t>
+  </si>
+  <si>
+    <t>Trident Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>JW Marriott Hotel , 4.5</t>
+  </si>
+  <si>
+    <t>ITC Maratha , 4.6</t>
+  </si>
+  <si>
+    <t>Pizza By The Bay , 4.2</t>
+  </si>
+  <si>
+    <t>Hotel Ram Ashraya , 4.4</t>
+  </si>
+  <si>
+    <t>Cafe Madras , 4.4</t>
+  </si>
+  <si>
+    <t>Leopold Cafe &amp; Bar , 4.3</t>
+  </si>
+  <si>
+    <t>Gurukripa Restaurant , 4.3</t>
+  </si>
+  <si>
+    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.4</t>
+  </si>
+  <si>
+    <t>Starbucks , 4.3</t>
+  </si>
+  <si>
+    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
+  </si>
+  <si>
+    <t>Candies , 4.2</t>
+  </si>
+  <si>
+    <t>Trekhievers , 4.5</t>
+  </si>
+  <si>
+    <t>Trekpanda , 4.6</t>
+  </si>
+  <si>
+    <t>Trekkers United , 4.7</t>
+  </si>
+  <si>
+    <t>Go Holidays , 4.4</t>
+  </si>
+  <si>
+    <t>When , 4.6</t>
+  </si>
+  <si>
+    <t>Snow Kingdom (R City Mall) , 4.7</t>
+  </si>
+  <si>
+    <t>Water Kingdom , 4.3</t>
+  </si>
+  <si>
+    <t>Kidzania (R City Mall) , 4.4</t>
+  </si>
+  <si>
+    <t>Wonder Park , 4.1</t>
+  </si>
+  <si>
+    <t>Great Escape Water Park , 4.0</t>
+  </si>
+  <si>
     <t>All the fields have 5 Results</t>
-  </si>
-  <si>
-    <t>Hotels Name / Rating</t>
-  </si>
-  <si>
-    <t>Restaurant Name / Rating</t>
-  </si>
-  <si>
-    <t>Coffee Shop Name / Rating</t>
-  </si>
-  <si>
-    <t>Travel Agents  / Rating</t>
-  </si>
-  <si>
-    <t>Things To Do / Rating</t>
-  </si>
-  <si>
-    <t>All the fields Should have 5 Results</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Each Search Results Should have atleast one Result</t>
-  </si>
-  <si>
-    <t>Hotel Sahara Star , 4.4</t>
-  </si>
-  <si>
-    <t>Taj Lands End , 4.5</t>
-  </si>
-  <si>
-    <t>Trident Hotel , 4.5</t>
-  </si>
-  <si>
-    <t>JW Marriott Hotel , 4.5</t>
-  </si>
-  <si>
-    <t>Pizza By The Bay , 4.2</t>
-  </si>
-  <si>
-    <t>Hotel Ram Ashraya , 4.4</t>
-  </si>
-  <si>
-    <t>Leopold Cafe &amp; Bar , 4.3</t>
-  </si>
-  <si>
-    <t>Cafe Madras , 4.4</t>
-  </si>
-  <si>
-    <t>Gurukripa Restaurant , 4.3</t>
-  </si>
-  <si>
-    <t>Tangerine Cafe (Ramada Plaza Palm Grove) , 4.1</t>
-  </si>
-  <si>
-    <t>Starbucks , 4.4</t>
-  </si>
-  <si>
-    <t>Starbucks , 4.3</t>
-  </si>
-  <si>
-    <t>Sunset Lounge (Sun N Sand Hotel) , 4.2</t>
-  </si>
-  <si>
-    <t>Candies , 4.2</t>
-  </si>
-  <si>
-    <t>Trekhievers , 4.5</t>
-  </si>
-  <si>
-    <t>Trekpanda , 4.6</t>
-  </si>
-  <si>
-    <t>Trekkers United , 4.7</t>
-  </si>
-  <si>
-    <t>Go Holidays , 4.4</t>
-  </si>
-  <si>
-    <t>When , 4.6</t>
-  </si>
-  <si>
-    <t>Water Kingdom , 4.3</t>
-  </si>
-  <si>
-    <t>Kidzania (R City Mall) , 4.4</t>
-  </si>
-  <si>
-    <t>Wonder Park , 4.1</t>
-  </si>
-  <si>
-    <t>Great Escape Water Park , 4.0</t>
-  </si>
-  <si>
-    <t>Kallada Travels (Suresh Kallada) , 1:30 AM , Rs:1300</t>
-  </si>
-  <si>
-    <t>The search result contains 'Car Washing Services' and 'Saravanampatti, Coimbatore'</t>
-  </si>
-  <si>
-    <t>The Cars Coimbatore / 09054493503</t>
-  </si>
-  <si>
-    <t>Filter1</t>
-  </si>
-  <si>
-    <t>Filter2</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>The number rating is greater than 20</t>
-  </si>
-  <si>
-    <t>AC Service   Chartered Accountant   Placement Services   Painting Contractors   Packers &amp; Movers   Coaching</t>
-  </si>
-  <si>
-    <t>Each Search Result has at least one match</t>
-  </si>
-  <si>
-    <t>Car Hire   Car Repair &amp; Services</t>
-  </si>
-  <si>
-    <t>AC Service   Courier Services   Computer &amp; Laptop Repair &amp; Services   Car Repair &amp; Services   Furniture Repair Services   House keeping Services   Nursing Services   Printing &amp; Publishing Services   Placement Services   Pest Control Services</t>
-  </si>
-  <si>
-    <t>Scrap Dealers   Scrap Buyers</t>
-  </si>
-  <si>
-    <t>Computer Training Institutes   Computer &amp; Laptop Repair &amp; Services</t>
-  </si>
-  <si>
-    <t>Filter3</t>
-  </si>
-  <si>
-    <t>Whats Up Mens Hostel , E B Colony Saravanampatti, Coimbatore</t>
-  </si>
-  <si>
-    <t>The Search result Contains coimbatore in Location</t>
-  </si>
-  <si>
-    <t>Languages, Format, Genre checkbox are Enabled</t>
-  </si>
-  <si>
-    <t>Aasife Biriyani , 3.8 , 2,674 Ratings</t>
-  </si>
-  <si>
-    <t>ITC Maratha , 4.6</t>
-  </si>
-  <si>
-    <t>Snow Kingdom (R City Mall) , 4.7</t>
-  </si>
-  <si>
-    <t>A1 Travels , 9:00 AM , Rs:700</t>
-  </si>
-  <si>
-    <t>SNB Travels , 11:30 AM , Rs:2500</t>
-  </si>
-  <si>
-    <t>No 1 Air Travels , 1:45 PM , Rs:950</t>
-  </si>
-  <si>
-    <t>Cinepolis Cinema (High Street Mall) , D N Nagar Samata Sainath Nagar Near Big Bazaar Majiwada , 10:25 AM</t>
-  </si>
-  <si>
-    <t>Balaji Lodge &amp; Mens Hostel , NH Road Town Hall, Coimbatore</t>
-  </si>
-  <si>
-    <t>PSG Tech Additional Hostel , Nehru Street Peelamedu, Coimbatore</t>
-  </si>
-  <si>
-    <t>The Executive Grande , Nagar Entrance Saravanampatti, Coimbatore</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>Plans Amounts Should be Less Than 1000 Rs</t>
-  </si>
-  <si>
-    <t>Four Seasons Restaurant , 3.7 , 3,199 Ratings</t>
-  </si>
-  <si>
-    <t>Guru Amuthas , 3.6 , 4,933 Ratings</t>
-  </si>
-  <si>
-    <t>Hotel Aryaas , 3.9 , 3,601 Ratings</t>
-  </si>
-  <si>
-    <t>Curry Factory , 4.2 , 3,045 Ratings</t>
-  </si>
-  <si>
-    <t>PVR Cinemas , Above Big Bazaar Near Raghuvanshi Mills Lower Parel , 04:55 PM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:35 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (R City Mall) , Opposite Presidential Towers Ghatkopar West , 10:10 AM</t>
-  </si>
-  <si>
-    <t>INOX Cinemas (Atria The Millennium Mall) , Opposite Poonam Chambers Besides Royal Garden Worli , 11:00 AM</t>
-  </si>
-  <si>
-    <t>PVR Cinemas (Jio World Drive) , Bandra Kurla Complex Bandra East , 09:05 AM</t>
-  </si>
-  <si>
-    <t>Data : Unlimited | Validity : 1 day , 49</t>
-  </si>
-  <si>
-    <t>Data : 5GB | Validity : 7 days , 77</t>
-  </si>
-  <si>
-    <t>Data : 1 GB | Validity : 1 Month | Details : Netflix Basic, Zee5 Premium, Xstream Play Premium and JioHotstar Super for 1 Month ; Netflix Basic : Unlimited ad-free movies, TV shows, and mobile games ; JioHotstar Super : Watch Live sports, Movies, Exclusive Hotstar Specials &amp; More; Zee5 Premium : Zee5 Premium subscription. Stream latest movies &amp; series on multiple devices. ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLIV, Lionsgate Play, Aha, Chaupal, Hoichoi &amp; more with Airtel Xstream Play premium. Download the app &amp; stream. , 279</t>
-  </si>
-  <si>
-    <t>Data : 2GB | Details: 2GB data valid for the same day till midnight, Revised price for Rs 29 pack , 33</t>
-  </si>
-  <si>
-    <t>Data: 15GB | Validity: 30 days | Details: 20+ OTTs with Airtel Xstream Play for 30 days ; Airtel Xstream Play Premium (includes 22+ OTTs) : Enjoy 30 days full access to 22+ OTTs such as Sony LIV, Lionsgate Play, Aha, Chaupal, Hoichoi, SunNxt and more on Airtel Xstream Play Premium. Download the app and start enjoying top hits today! , 181</t>
-  </si>
-  <si>
-    <t>Plans Amounts are Lesser Than 1000 Rs</t>
-  </si>
-  <si>
-    <t>The Search result should  Contains coimbatore in Location</t>
-  </si>
-  <si>
-    <t>The Search should result contains gym/fitness</t>
-  </si>
-  <si>
-    <t>The Search result contains gym/fitness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -640,18 +638,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,12 +1007,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7265625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="38.81640625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1056,78 +1042,78 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="18">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1147,17 +1133,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2078910E-89DC-4A82-8AE7-BC0CD9CFD94E}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.90625"/>
-    <col min="4" max="4" customWidth="true" width="56.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -1184,75 +1170,75 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="17">
         <v>8122537244</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>76</v>
+      <c r="C2" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
+      <c r="H2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+        <v>112</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+        <v>114</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1263,55 +1249,6 @@
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D9107-35B7-4EA4-B4C3-7C9F736888BC}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" customWidth="true" width="38.08984375"/>
-    <col min="3" max="3" customWidth="true" width="34.6328125"/>
-    <col min="4" max="4" customWidth="true" width="11.36328125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17">
-        <v>1234567890</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1326,8 +1263,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="2" max="4" bestFit="true" customWidth="true" width="29.6328125"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="29.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1374,10 +1311,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0"/>
-    <col min="3" max="3" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1398,66 +1335,66 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1480,15 +1417,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.81640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
-    <col min="3" max="3" customWidth="true" width="12.6328125"/>
-    <col min="4" max="4" customWidth="true" width="11.54296875"/>
-    <col min="5" max="5" customWidth="true" width="11.453125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="70.7265625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="27.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="9" max="9" customWidth="true" width="10.0"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1499,13 +1436,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>57</v>
@@ -1521,85 +1458,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G7" s="12"/>
@@ -1623,21 +1560,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A55F038-62C3-4D2F-83DA-40C877767835}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6328125"/>
-    <col min="4" max="4" customWidth="true" width="20.26953125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0"/>
-    <col min="6" max="6" customWidth="true" width="18.90625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="72.90625"/>
-    <col min="8" max="8" customWidth="true" width="28.54296875"/>
-    <col min="9" max="9" customWidth="true" width="26.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="7" max="7" width="72.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1654,10 +1591,10 @@
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>58</v>
@@ -1673,92 +1610,92 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="I2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+        <v>119</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
@@ -1789,24 +1726,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46894FF9-5F6E-4176-8D49-2E0E68A2167F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.81640625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="190.90625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="31.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.1796875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="24.6328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.1796875"/>
-    <col min="12" max="12" customWidth="true" width="21.0"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="190.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1831,15 +1768,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1848,13 +1785,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1863,13 +1800,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1878,13 +1815,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1893,13 +1830,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1918,20 +1855,20 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.36328125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="32.6328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.36328125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.26953125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1939,19 +1876,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>68</v>
@@ -1964,117 +1901,117 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+        <v>143</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+        <v>145</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+        <v>146</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2098,12 +2035,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.08984375"/>
-    <col min="2" max="2" customWidth="true" width="15.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="42.54296875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.54296875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2127,64 +2064,64 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2202,18 +2139,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38DB7D2-E491-4117-BA17-3AAF90B77DB8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="3" max="3" customWidth="true" width="8.7265625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="91.26953125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="41.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="25.1796875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="91.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2240,82 +2177,82 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>128</v>
+      <c r="C2" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="28"/>
+        <v>106</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="28"/>
+        <v>105</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="28"/>
+        <v>108</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse workspace\Identify-Car-Wash-Services\testData\"/>
     </mc:Choice>
@@ -26,7 +26,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="180">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -489,12 +489,109 @@
   </si>
   <si>
     <t>All the fields have 5 Results</t>
+  </si>
+  <si>
+    <t>5K Car Care Pvt Ltd / 07411822389</t>
+  </si>
+  <si>
+    <t>The Residency Towers , 4.4</t>
+  </si>
+  <si>
+    <t>Le Meridien , 4.4</t>
+  </si>
+  <si>
+    <t>Vivanta , 4.3</t>
+  </si>
+  <si>
+    <t>Ibis Coimbatore City Centre , 4.2</t>
+  </si>
+  <si>
+    <t>Radisson Blu Hotel , 4.4</t>
+  </si>
+  <si>
+    <t>Sree Annapoorna , 4.4</t>
+  </si>
+  <si>
+    <t>Abi's Kitchen , 3.9</t>
+  </si>
+  <si>
+    <t>S S Hyderabad Biryani , 4.2</t>
+  </si>
+  <si>
+    <t>Shree Anandhas Restaurant , 4.3</t>
+  </si>
+  <si>
+    <t>Sree Annapoorna , 4.1</t>
+  </si>
+  <si>
+    <t>Velan Kaappi Tea Desk , 4.2</t>
+  </si>
+  <si>
+    <t>Chillum Cafe , 4.2</t>
+  </si>
+  <si>
+    <t>Foody Buddy , 3.8</t>
+  </si>
+  <si>
+    <t>Mud Cups , 4.6</t>
+  </si>
+  <si>
+    <t>Box Office Cafe Bar &amp; Bistro , 3.8</t>
+  </si>
+  <si>
+    <t>Aspire Holidays , 4.6</t>
+  </si>
+  <si>
+    <t>GT Holidays , 4.6</t>
+  </si>
+  <si>
+    <t>Zuu Zuu Holidays , 4.7</t>
+  </si>
+  <si>
+    <t>KPN Travels INDIA Ltd , 3.7</t>
+  </si>
+  <si>
+    <t>Black Thunder Theme Park Pvt Ltd , 4.1</t>
+  </si>
+  <si>
+    <t>Dare 2 Escape , 4.8</t>
+  </si>
+  <si>
+    <t>Kovai Kondattam Amusement Park , 4.0</t>
+  </si>
+  <si>
+    <t>Fun Maxx , 4.9</t>
+  </si>
+  <si>
+    <t>Oxyzone Adventure Park , 4.4</t>
+  </si>
+  <si>
+    <t>Dosa Infinity For 99 Varieties Of Dosa , 3.6 , 220 Ratings</t>
+  </si>
+  <si>
+    <t>XLR8 Moto Court / 08105362141</t>
+  </si>
+  <si>
+    <t>Nextgen Auto Shop / 08511973527</t>
+  </si>
+  <si>
+    <t>Rr Mess , 3.9 , 1,249 Ratings</t>
+  </si>
+  <si>
+    <t>Sri Auto Travels , 5:50 AM , Rs:3999</t>
+  </si>
+  <si>
+    <t>Pandiya Nadu Restaurant , 3.6 , 1,151 Ratings</t>
+  </si>
+  <si>
+    <t>Curry Factory , 4.2 , 3,045 Ratings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1007,12 +1104,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7265625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="38.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1055,7 +1152,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>62</v>
@@ -1139,11 +1236,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.90625"/>
+    <col min="4" max="4" customWidth="true" width="56.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -1191,10 +1288,10 @@
       <c r="G2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="H2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -1263,8 +1360,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="2" max="4" bestFit="true" customWidth="true" width="29.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1311,10 +1408,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0"/>
+    <col min="3" max="3" customWidth="true" width="28.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1417,15 +1514,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="70.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0"/>
+    <col min="3" max="3" customWidth="true" width="12.6328125"/>
+    <col min="4" max="4" customWidth="true" width="11.54296875"/>
+    <col min="5" max="5" customWidth="true" width="11.453125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="70.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="9" max="9" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1566,15 +1663,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="72.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="4" max="4" customWidth="true" width="20.26953125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.0"/>
+    <col min="6" max="6" customWidth="true" width="18.90625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="72.90625"/>
+    <col min="8" max="8" customWidth="true" width="28.54296875"/>
+    <col min="9" max="9" customWidth="true" width="26.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1677,7 +1774,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -1691,7 +1788,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1732,18 +1829,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="190.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="190.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.6328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.1796875"/>
+    <col min="12" max="12" customWidth="true" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1860,15 +1957,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.36328125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.36328125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1905,19 +2002,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>74</v>
@@ -1932,19 +2029,19 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -1953,19 +2050,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -1974,19 +2071,19 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -1995,19 +2092,19 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2035,12 +2132,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.08984375"/>
+    <col min="2" max="2" customWidth="true" width="15.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="42.54296875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2097,7 +2194,7 @@
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -2107,7 +2204,7 @@
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2117,7 +2214,7 @@
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -2145,12 +2242,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="91.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="3" max="3" customWidth="true" width="8.7265625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="91.26953125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="41.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="25.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2187,7 +2284,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>63</v>
@@ -2204,7 +2301,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -2215,7 +2312,7 @@
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -2226,7 +2323,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2237,7 +2334,7 @@
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="180">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -1206,7 +1206,7 @@
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="189">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -585,6 +585,33 @@
   </si>
   <si>
     <t>Curry Factory , 4.2 , 3,045 Ratings</t>
+  </si>
+  <si>
+    <t>Vijay Travels , 7:55 AM , Rs:849</t>
+  </si>
+  <si>
+    <t>Magizham Restaurant , 4.0 , 741 Ratings</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 09:35 AM</t>
+  </si>
+  <si>
+    <t>Data : 50GB | Details : JioHotstar Mobile subscription for 3 Months ; JioHotstar Mobile for 3 months : Subscription worth Rs 149. Watch Live Sports, Movies, Exclusive Hotstar Specials &amp; more , 451</t>
+  </si>
+  <si>
+    <t>Data: 50GB | Validity: 30 days , 361</t>
+  </si>
+  <si>
+    <t>Data : 1GB | Details :Netflix, JioHotstar, Airtel Xstream Play &amp; Zee5 for 1 month. ; Netflix Basic : Unlimited ad-free movies, TV shows, and mobile games ; JioHotstar Super : Watch Live sports, Movies, Exclusive Hotstar Specials &amp; More; Zee5 Premium : Zee5 Premium subscription. Stream latest movies &amp; series on multiple devices. ; Airtel Xstream Play Premium : Enjoy full access to 25+ OTTs such as SonyLIV, Lionsgate Play, Aha, Chaupal, Hoichoi &amp; more with Airtel Xstream Play premium. Download the app &amp; stream. , 279</t>
+  </si>
+  <si>
+    <t>Data : 1GB/day | Details: Revised price for Rs 181 pack , 211</t>
+  </si>
+  <si>
+    <t>Data : 15GB | Details : JioHotstar Mobile subscription for 3 Months; Upgrade from Rs. 161 or Rs. 181 pack to enjoy extra benefits ; JioHotstar Mobile for 3 months : Subscription worth Rs 149. Watch Live Sports, Movies, Exclusive Hotstar Specials &amp; more , 195</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 11:15 AM</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1197,7 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -1182,7 +1209,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1206,7 +1233,7 @@
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="2" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -1277,7 +1304,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>101</v>
@@ -1298,7 +1325,7 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -1309,7 +1336,7 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="15" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1320,7 +1347,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="15" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -1331,7 +1358,7 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="15" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -1726,7 +1753,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>65</v>
@@ -1746,7 +1773,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1760,7 +1787,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -1774,7 +1801,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -1788,7 +1815,7 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="2" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -2002,19 +2029,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>74</v>
@@ -2029,19 +2056,19 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -2050,19 +2077,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -2071,19 +2098,19 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -2092,19 +2119,19 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2214,7 +2241,7 @@
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -2284,7 +2311,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>63</v>
@@ -2323,7 +2350,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2334,7 +2361,7 @@
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>

--- a/testData/Identify-Car-Wash-Services_TestData.xlsx
+++ b/testData/Identify-Car-Wash-Services_TestData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="208">
   <si>
     <t>Saravanampatti</t>
   </si>
@@ -612,6 +612,63 @@
   </si>
   <si>
     <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 11:15 AM</t>
+  </si>
+  <si>
+    <t>Guru Amuthas , 3.6 , 4,968 Ratings</t>
+  </si>
+  <si>
+    <t>Hotel Aryaas , 3.8 , 3,612 Ratings</t>
+  </si>
+  <si>
+    <t>Mohabbath Restaurant , 4.0 , 1,714 Ratings</t>
+  </si>
+  <si>
+    <t>Rr Mess , 3.8 , 1,259 Ratings</t>
+  </si>
+  <si>
+    <t>Pandiya Nadu Restaurant , 3.6 , 1,157 Ratings</t>
+  </si>
+  <si>
+    <t>Sofitel Mumbai Bkc , 4.6</t>
+  </si>
+  <si>
+    <t>Gurukripa Restaurant , 4.2</t>
+  </si>
+  <si>
+    <t>Snow Kingdom (R City Mall) , 4.6</t>
+  </si>
+  <si>
+    <t>Calls : Unlimited | Data : 1.5GB/day | SMS : 100/day | Validity : 28 days ; India s 1st Spam Fighting Network : Get LIVE Alerts asAirtel warning: SPAMon your phone for incoming spam calls and SMS ; Free hellotunes for you : Set any one tune every 30 days for free ; Perplexity Pro AI : Enhance your search experience with a free subscription of Perplexity Pro AI worth17000 for 12 months , 299</t>
+  </si>
+  <si>
+    <t>Calls : Unlimited | Data : 1.5GB/day | SMS : 100/day | Validity : 84 days ; India s 1st Spam Fighting Network : Get LIVE Alerts asAirtel warning: SPAMon your phone for incoming spam calls and SMS ; Free hellotunes for you : Set any one tune every 30 days for free ; Perplexity Pro AI : Enhance your search experience with a free subscription of Perplexity Pro AI worth17000 for 12 months , 799</t>
+  </si>
+  <si>
+    <t>Calls : Unlimited | Data : 2GB/day | SMS : 100/day | Validity : 84 days | Added benefit : Unlimited 5G available ; India s 1st Spam Fighting Network : Get LIVE Alerts asAirtel warning: SPAMon your phone for incoming spam calls and SMS ; Unlimited 5G Data : Unlimited 5G Data is over and above your plan limit and can be used in 5G Network areas only ; Free hellotunes for you : Set any one tune every 30 days for free ; RewardsMini Subscription : Earn Cashback of Rs 80 per month with no cost ; Perplexity Pro AI : Enhance your search experience with a free subscription of Perplexity Pro AI worth17000 for 12 months , 859</t>
+  </si>
+  <si>
+    <t>Calls : Unlimited | Data : 2GB/Day | SMS : 100/Day | Validity : 28 Days | Details : Netflix Basic, Zee5 Premium and Xstream Play Premium for 28 Days and JioHotstar Super for 1 Month and UL 5G ; Netflix Basic : Included in your Airtel entertainment recharge of598 ; JioHotstar Super : Included in your Airtel entertainment recharge of598 ; ZEE5 Premium : Included in your Airtel entertainment recharge of598 ; Xstream Play Premium : Included in your Airtel entertainment recharge of598 ; Unlimited 5G Data : Unlimited 5G Data is over and above your plan limit and can be used in 5G Network areas only ; Free hellotunes for you : Set any one tune every 30 days for free ; Perplexity Pro AI : Enhance your search experience with a free subscription of Perplexity Pro AI worth17000 for 12 months , 598</t>
+  </si>
+  <si>
+    <t>Calls : Unlimited | Data : 2GB/day | SMS : 100/day | Validity : 28 days | Added benefit : Unlimited 5G available ; India s 1st Spam Fighting Network : Get LIVE Alerts asAirtel warning: SPAMon your phone for incoming spam calls and SMS ; Unlimited 5G Data : Unlimited 5G Data is over and above your plan limit and can be used in 5G Network areas only ; Free hellotunes for you : Set any one tune every 30 days for free ; Perplexity Pro AI : Enhance your search experience with a free subscription of Perplexity Pro AI worth17000 for 12 months , 349</t>
+  </si>
+  <si>
+    <t>SRL Travels , 6:00 AM , Rs:999</t>
+  </si>
+  <si>
+    <t>Four Seasons Restaurant , 3.7 , 3,209 Ratings</t>
+  </si>
+  <si>
+    <t>Curry Factory , 4.2 , 3,058 Ratings</t>
+  </si>
+  <si>
+    <t>Aasife Biriyani , 3.8 , 2,683 Ratings</t>
+  </si>
+  <si>
+    <t>Vivanta , 4.4</t>
+  </si>
+  <si>
+    <t>INOX Cinemas(Inorbit Mall) , Beside Hypercity Near Subkuch Market Malad West , 10:20 AM</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1361,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>101</v>
@@ -1325,7 +1382,7 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -1336,7 +1393,7 @@
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="15" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -1347,7 +1404,7 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="15" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -1358,7 +1415,7 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="15" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -1753,7 +1810,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>65</v>
@@ -1773,7 +1830,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1787,7 +1844,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -1801,7 +1858,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -2029,19 +2086,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>74</v>
@@ -2056,19 +2113,19 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -2077,19 +2134,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -2098,19 +2155,19 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -2119,19 +2176,19 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2231,7 +2288,7 @@
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2241,7 +2298,7 @@
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -2311,7 +2368,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>63</v>
